--- a/tables/2.Documentación/cuadros_documentación.xlsx
+++ b/tables/2.Documentación/cuadros_documentación.xlsx
@@ -8,12 +8,13 @@
   <sheets>
     <sheet name="pedido20" r:id="rId3" sheetId="1"/>
     <sheet name="pedido21" r:id="rId4" sheetId="2"/>
+    <sheet name="pedido20b" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
   <si>
     <t>q17_dni_tenencia</t>
   </si>
@@ -100,6 +101,42 @@
   </si>
   <si>
     <t>VENEZUELA</t>
+  </si>
+  <si>
+    <t>q17_dni_tenencia/p20</t>
+  </si>
+  <si>
+    <t>Extra MERCOSUR europeos / 0-5 años</t>
+  </si>
+  <si>
+    <t>Extra MERCOSUR europeos / 10+ años</t>
+  </si>
+  <si>
+    <t>Extra MERCOSUR europeos / 5-9 años</t>
+  </si>
+  <si>
+    <t>Extra MERCOSUR no europeos / 0-5 años</t>
+  </si>
+  <si>
+    <t>Extra MERCOSUR no europeos / 10+ años</t>
+  </si>
+  <si>
+    <t>Extra MERCOSUR no europeos / 5-9 años</t>
+  </si>
+  <si>
+    <t>MERCOSUR / 0-5 años</t>
+  </si>
+  <si>
+    <t>MERCOSUR / 10+ años</t>
+  </si>
+  <si>
+    <t>MERCOSUR / 5-9 años</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -783,4 +820,157 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E2" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="G2" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H2" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K2" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>97.1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>63.7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>94.6</v>
+      </c>
+      <c r="G3" t="n">
+        <v>93.2</v>
+      </c>
+      <c r="H3" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="I3" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>96.8</v>
+      </c>
+      <c r="K3" t="n">
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>100.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>